--- a/vits_data.xlsx
+++ b/vits_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitssolutionseestiou-my.sharepoint.com/personal/mariokaara_vitssolutionseestiou_onmicrosoft_com/Documents/Desktop/Analytics/VITS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitssolutionseestiou-my.sharepoint.com/personal/mariokaara_vitssolutionseestiou_onmicrosoft_com/Documents/Desktop/Analytics/VITS/VITS_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="72" documentId="8_{291B3A9B-972C-4AE5-8B5B-FD5DAA6B2B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14126D9B-E670-4775-A682-64394ACF33BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{850DC3F4-F4F3-4875-AB6F-B2039327731A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{850DC3F4-F4F3-4875-AB6F-B2039327731A}"/>
   </bookViews>
   <sheets>
     <sheet name="rev_exp" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2E69F-B8C7-466E-B295-7B0BEC74E6A0}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K27" sqref="K26:K27"/>
     </sheetView>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140F1EF8-9737-4D45-84CD-59ADBB7DC5AB}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
